--- a/profile.xlsx
+++ b/profile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23206"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="1020" windowWidth="16100" windowHeight="15620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="profile" sheetId="1" r:id="rId1"/>
@@ -784,7 +784,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -793,13 +793,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -817,7 +810,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,11 +820,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -844,215 +832,216 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="101">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+  <cellStyles count="102">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1348,7 +1337,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1396,67 +1385,67 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A3" s="2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1492,1219 +1481,1219 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A5" s="2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
         <v>16</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A6" s="2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A7" s="2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
         <v>21</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A8" s="2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1">
         <v>22</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A9" s="2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1">
         <v>10</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A10" s="2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A11" s="2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1">
         <v>16</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A12" s="2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1">
         <v>5</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A13" s="2">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1">
         <v>11</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A16" s="2">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1">
         <v>11</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A17" s="2">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1">
         <v>23</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A18" s="2">
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1">
         <v>16</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A19" s="2">
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1">
         <v>11</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A20" s="2">
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1">
         <v>15</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A21" s="2">
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1">
         <v>18</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A22" s="2">
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1">
         <v>21</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A23" s="2">
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1">
         <v>25</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A24" s="2">
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1">
         <v>23</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A25" s="2">
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1">
         <v>15</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A26" s="2">
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="2">
-        <v>13</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A27" s="2">
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1">
         <v>11</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="G27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A28" s="2">
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1">
         <v>12</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A29" s="2">
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1">
         <v>11</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="G29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A30" s="2">
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1">
         <v>23</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A31" s="2">
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1">
         <v>26</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="2" t="s">
+      <c r="G31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A32" s="2">
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1">
         <v>22</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A33" s="2">
+    <row r="33" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>16</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="G33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A34" s="2">
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1">
         <v>15</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A35" s="2">
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1">
         <v>11</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="2" t="s">
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A36" s="2">
+    <row r="36" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1">
         <v>18</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A37" s="2">
+    <row r="37" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1">
         <v>16</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="2" t="s">
+      <c r="G37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A38" s="2">
+    <row r="38" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1">
         <v>20</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="2" t="s">
+      <c r="G38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A39" s="2">
+    <row r="39" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="2">
-        <v>13</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="2" t="s">
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1">
+        <v>13</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A40" s="2">
+    <row r="40" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1">
         <v>23</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="2" t="s">
+      <c r="G40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A41" s="2">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="2">
-        <v>14</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="2" t="s">
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" ht="15">
-      <c r="A42" s="2">
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1">
         <v>11</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="2" t="s">
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="1" t="s">
         <v>252</v>
       </c>
     </row>
